--- a/biology/Biologie cellulaire et moléculaire/Nucléotide/Nucléotide.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Nucléotide/Nucléotide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otide</t>
+          <t>Nucléotide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un nucléotide est une molécule organique qui est composée d'une base nucléique (ou base azotée), d'un ose à cinq atomes de carbone, dit pentose, dont l'association forme un nucléoside, et enfin de un à trois groupes phosphate.
 L'adénosine triphosphate, dite ATP, est un nucléotide dont l'hydrolyse sous forme d'ADP et de phosphate libère une quantité d'énergie utilisée dans l'activité de la cellule animale ; plus généralement, sous la forme de dNTP (ATP, GTP, CTP, UTP), les nucléotides jouent un rôle central dans le métabolisme. Les nucléotides participent également à la signalisation cellulaire. Certains sont des cofacteurs ou coenzymes de réactions biochimiques.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otide</t>
+          <t>Nucléotide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,14 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un nucléotide est composé de trois parties :
 Une base nucléique variable en fonction du type de nucléotide (purine ou pyrimidine) fixé à l'atome de carbone 1' du désoxyribose ;
 Un sucre à cinq atomes de carbone ;
-Un groupement phosphate (ou acide phosphorique), identique pour les nucléotides de l'ADN et de l'ARN, fixé sur l'atome de carbone 5' du désoxyribose, (et à l'atome de carbone 3' du désoxyribose du nucléotide suivant)[1].
+Un groupement phosphate (ou acide phosphorique), identique pour les nucléotides de l'ADN et de l'ARN, fixé sur l'atome de carbone 5' du désoxyribose, (et à l'atome de carbone 3' du désoxyribose du nucléotide suivant).
 Ils sont appelés ribonucléotides si le sucre est du ribose, ou des désoxyribonucléotides si le sucre est du désoxyribose.
 </t>
         </is>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otide</t>
+          <t>Nucléotide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Voie métabolique de formation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">In vivo, les nucléotides peuvent être synthétisés de novo, ou recyclés par des voies de recyclages. Les nucléotides subissent une dégradation de telle sorte que des parties utiles peuvent être réutilisées dans des réactions de synthèse pour créer de nouveaux nucléotides. Le foie est le principal organe de la synthèse de novo des quatre nucléotides.
 Les composants utilisés dans la synthèse nucléotidique de novo sont dérivés de précurseurs biosynthétiques du métabolisme des glucides et des acides aminés, ainsi que de l'ammoniac et du dioxyde de carbone. La synthèse de novo des pyrimidines et des purines suit deux voies différentes.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otide</t>
+          <t>Nucléotide</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Nucléotides dans l'ADN et l'ARN</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nucléotides constituent l'élément de base d'un acide nucléique tel que l'ADN ou l'ARN.
 Ces deux types sont respectivement constitués uniformément de desoxyribose et de ribose, la base azotée étant en revanche variable.
@@ -607,7 +625,7 @@
 l'UMP, dont la base nucléique est l'uracile (U), une pyrimidine, il remplace le TMP qui n'apparaît que dans l'ADN ;
 le CMP, dont la base nucléique est la cytosine (C).
 L'UMP s'apparie avec l'adénosine monophosphate (AMP).
-La biologie de synthèse crée des nucléotides artificiels formant des paires de bases non naturelles à l'origine d'un code génétique étendu (en)[2].
+La biologie de synthèse crée des nucléotides artificiels formant des paires de bases non naturelles à l'origine d'un code génétique étendu (en).
 </t>
         </is>
       </c>
@@ -618,7 +636,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otide</t>
+          <t>Nucléotide</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -636,7 +654,9 @@
           <t>ATP</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adénosine triphosphate, ou ATP, est un nucléotide de stockage de l'énergie dans les cellules vivantes. Cette énergie est libérée par hydrolyse des groupements phosphates.
 </t>
@@ -649,7 +669,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otide</t>
+          <t>Nucléotide</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,7 +687,9 @@
           <t>Analogues des nucléotides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme pour les analogues de nucléosides, certaines molécules ont été synthétisées comme médicaments, constitués d'un nucléoside et d'un ou plusieurs groupes phosphates. Parmi ces molécules, on peut citer le sofosbuvir prescrit pour le traitement de l'hépatite C.
 </t>
@@ -680,7 +702,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nucl%C3%A9otide</t>
+          <t>Nucléotide</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -698,7 +720,9 @@
           <t>Codes IUPAC</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">L'IUPAC a défini les codes suivants pour représenter les nucléotides des acides nucléiques et désoxyribonucléiques séquencés :
 </t>
